--- a/files for download/Бухгалтерские данные.xlsx
+++ b/files for download/Бухгалтерские данные.xlsx
@@ -1156,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D74"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>514985/514985</t>
+          <t>641301</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>Терминал линейно-оптический MT-PON-OLT</t>
+          <t>Каркас (шасси укомплектованное платами питания)</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -1204,561 +1204,313 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ТТН 3612782 от 31.10.2013 г.</t>
+          <t>157)  ттн 5653549 от 26.12.2018г.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Для подключения абонентов по технологии xPON, с платой управления, модуль вентиляторов, двумя платами PRWG/</t>
+          <t xml:space="preserve">  Каркас (шасси укомплектованное платами питания)1шт.х301,27р.=301,27р.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Количество плато-мест 14. Высота 10U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12.2014г. х/сп</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  разветвитель оптический=5шт</t>
+      <c r="A9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>641302</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
+        </is>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>Филимонов А.В.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  шнур оптический=215шт</t>
+          <t>158)  ттн 5653549 от 28.12.2018г.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>566038</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t>Терминал оптический линейный MT-PON-OLT</t>
-        </is>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12)  ттн 3655308  от 19.04.2013г.=  124 399 600р.</t>
+          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  С платой управления, моделем вентиляторов, двумя платами PRWG.</t>
+          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Количество плато-мест 14. Высота 10U.</t>
+          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12.2014г. х/сп</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  разветвитель оптический=4шт</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  шнур оптический=256шт</t>
+      <c r="A19" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="inlineStr">
+        <is>
+          <t>641303</t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <t>Плата управления SCXL (System control and switching card)</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>Филимонов А.В.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Акт содержания ДМ №354 от 23.04.2019</t>
+          <t>159)  ттн 5653549 от 26.12.2018г.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Плата управления SCXL (System control and switching card)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1шт.*450,91руб. = 450,91руб.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>645022</t>
-        </is>
-      </c>
-      <c r="C23" s="11" t="inlineStr">
-        <is>
-          <t>Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
-        </is>
-      </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Активное шлюзовое оборудование PON, в качестве которого выступает</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>178)  ттн 5653084 от 05.12.2018г.</t>
+          <t xml:space="preserve">  OLT, связывает оконечное оборудование абонентов с сеть Интернет</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
+          <t xml:space="preserve">  с другими медиаконтентами, для организации услуги передачи голоса,</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
+          <t xml:space="preserve">  данных и видео</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
+          <t xml:space="preserve">  Осуществляет контроль и управление. вы-полняет коммутацию необходимую всех линейных плат</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
+          <t>   </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
+          <t>   </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A30" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>641303/1</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <t>Плата управления SCXL (System control and switching card)</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>Филимонов А.В.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>645023</t>
-        </is>
-      </c>
-      <c r="C33" s="11" t="inlineStr">
-        <is>
-          <t>Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>160)  ттн 5653549 от 26.12.2018г.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>179)  ттн 5653061 от 29.11.2018г.</t>
+          <t xml:space="preserve">  Плата управления SCXL (System control and switching card)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
+          <t xml:space="preserve">  1шт.*450,91руб. = 450,91руб.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
+          <t xml:space="preserve">  Активное шлюзовое оборудование PON, в качестве которого выступает</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
+          <t xml:space="preserve">  OLT, связывает оконечное оборудование абонентов с сеть Интернет</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
+          <t xml:space="preserve">  с другими медиаконтентами, для организации услуги передачи голоса,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
+          <t xml:space="preserve">  данных и видео</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
+          <t xml:space="preserve">  Осуществляет контроль и управление. вы-полняет коммутацию необходимую всех линейных плат</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>   </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>   </t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="inlineStr">
-        <is>
-          <t>645822</t>
-        </is>
-      </c>
-      <c r="C43" s="11" t="inlineStr">
-        <is>
-          <t>Плата оптического доступа (16 портов GPON)</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>180)  Объект: Рек-ция сетей э/связи Гом. обл. (GPON, г. Гомель, Новобелицкий район, юридические лица)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ттн 5840968 от 24.07.2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t>645823</t>
-        </is>
-      </c>
-      <c r="C54" s="11" t="inlineStr">
-        <is>
-          <t>Плата оптического доступа (16 портов GPON)</t>
-        </is>
-      </c>
-      <c r="D54" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>181)  Объект: Рек-ция сетей э/связи Гом. обл. (GPON, г. Гомель, Новобелицкий район, юридические лица)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ттн 5840968 от 24.07.2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" s="11" t="inlineStr">
-        <is>
-          <t>645824</t>
-        </is>
-      </c>
-      <c r="C65" s="11" t="inlineStr">
-        <is>
-          <t>Плата оптического доступа (16 портов GPON)</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
-        <is>
-          <t>Филимонов А.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>182)  Объект: Рек-ция сетей э/связи Гом. обл. (GPON, г. Гомель, Новобелицкий район, юридические лица)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ттн 5840968 от 24.07.2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Плата оптического доступа (16 портов GPON, содержит модули SFP С+ для</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптического абонентского доступа 1310 nm/1490 nm,32дБ,20км)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1шт.*13702,01руб. = 13702,01руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Активное шлюзовое оборудование PON, устанавливается в</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  оптический линейный терминал MT-PON-ОЛТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Содержание ДМ согласно акта комиссионной оценки ГФ №293</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A43" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="34">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A60:D60"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A69:D69"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
